--- a/src/cab/resource/resource.xlsx
+++ b/src/cab/resource/resource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/resource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-ui/vertx-ai/src/cab/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F9F459-87BC-DE40-A975-5EA01C01BA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B0BB8D-5329-7E4B-B0E2-53767740D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52980" yWindow="-4540" windowWidth="43060" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-47720" yWindow="-1600" windowWidth="43060" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RES" sheetId="2" r:id="rId1"/>
@@ -536,27 +536,27 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -564,7 +564,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -585,7 +585,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -593,7 +593,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -613,7 +613,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -752,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,7 +761,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,8 +793,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1176,17 +1175,17 @@
   <dimension ref="A2:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="2" width="55.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -1195,291 +1194,290 @@
     <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="23" customFormat="1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:7" s="22" customFormat="1">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:9" s="23" customFormat="1">
-      <c r="A3" s="24" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" s="22" customFormat="1">
+      <c r="A3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="23" customFormat="1">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:7" s="22" customFormat="1">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1">
-      <c r="A5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="1:7" s="22" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="23" customFormat="1">
-      <c r="A6" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:7" s="22" customFormat="1">
+      <c r="A6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="23" customFormat="1">
-      <c r="A7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="1:7" s="22" customFormat="1">
+      <c r="A7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="23" customFormat="1">
-      <c r="A8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="26" t="s">
+    <row r="8" spans="1:7" s="22" customFormat="1">
+      <c r="A8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="23" customFormat="1">
-      <c r="A9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="1:7" s="22" customFormat="1">
+      <c r="A9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="23" customFormat="1">
-      <c r="A10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:7" s="22" customFormat="1">
+      <c r="A10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F20" s="3"/>
@@ -1492,526 +1490,526 @@
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="16" t="str">
-        <f t="shared" ref="B28:B42" si="0">A48</f>
+      <c r="A28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="15" t="str">
+        <f>A48</f>
         <v>#GUID#</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="15" t="str">
         <f>A15</f>
         <v>#PID#</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>1</v>
       </c>
-      <c r="I28" s="12"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A29" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="15" t="str">
+        <f>A49</f>
         <v>#GUID#</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="15" t="str">
         <f>A16</f>
         <v>#PID#</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>4</v>
       </c>
-      <c r="I29" s="12"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="15" t="str">
+        <f>A50</f>
         <v>#GUID#</v>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="15" t="str">
         <f>A17</f>
         <v>#PID#</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>8</v>
       </c>
-      <c r="I30" s="12"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="15" t="str">
+        <f>A51</f>
         <v>#GUID#</v>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="15" t="str">
         <f>A18</f>
         <v>#PID#</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>12</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="15" t="str">
+        <f>A52</f>
         <v>#GUID#</v>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C32" s="15" t="str">
         <f>A15</f>
         <v>#PID#</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>1</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="15" t="str">
+        <f>A53</f>
         <v>#GUID#</v>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C33" s="15" t="str">
         <f>A17</f>
         <v>#PID#</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>8</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="15" t="str">
+        <f>A54</f>
         <v>#GUID#</v>
       </c>
-      <c r="C34" s="16" t="str">
+      <c r="C34" s="15" t="str">
         <f>A18</f>
         <v>#PID#</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>12</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="15" t="str">
+        <f>A55</f>
         <v>#GUID#</v>
       </c>
-      <c r="C35" s="16" t="str">
+      <c r="C35" s="15" t="str">
         <f>A19</f>
         <v>#PID#</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>3</v>
       </c>
-      <c r="I35" s="12"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A36" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="15" t="str">
+        <f>A56</f>
         <v>#GUID#</v>
       </c>
-      <c r="C36" s="16" t="str">
+      <c r="C36" s="15" t="str">
         <f>A19</f>
         <v>#PID#</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>3</v>
       </c>
-      <c r="I36" s="12"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="15" t="str">
+        <f>A57</f>
         <v>#GUID#</v>
       </c>
-      <c r="C37" s="16" t="str">
+      <c r="C37" s="15" t="str">
         <f>A19</f>
         <v>#PID#</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>11</v>
       </c>
-      <c r="I37" s="12"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="15" t="str">
+        <f>A58</f>
         <v>#GUID#</v>
       </c>
-      <c r="C38" s="16" t="str">
+      <c r="C38" s="15" t="str">
         <f>A20</f>
         <v>#PID#</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>5</v>
       </c>
-      <c r="I38" s="12"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="15" t="str">
+        <f>A59</f>
         <v>#GUID#</v>
       </c>
-      <c r="C39" s="16" t="str">
+      <c r="C39" s="15" t="str">
         <f>A20</f>
         <v>#PID#</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>3</v>
       </c>
-      <c r="I39" s="12"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="15" t="str">
+        <f>A60</f>
         <v>#GUID#</v>
       </c>
-      <c r="C40" s="16" t="str">
+      <c r="C40" s="15" t="str">
         <f>A15</f>
         <v>#PID#</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>1</v>
       </c>
-      <c r="I40" s="12"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A41" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="15" t="str">
+        <f>A61</f>
         <v>#GUID#</v>
       </c>
-      <c r="C41" s="16" t="str">
+      <c r="C41" s="15" t="str">
         <f>A15</f>
         <v>#PID#</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>1</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A42" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="15" t="str">
+        <f>A62</f>
         <v>#GUID#</v>
       </c>
-      <c r="C42" s="16" t="str">
+      <c r="C42" s="15" t="str">
         <f>A15</f>
         <v>#PID#</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="11">
         <v>1</v>
       </c>
-      <c r="I42" s="12"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
+      <c r="A43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="15"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="3"/>
-      <c r="K43" s="14"/>
+      <c r="K43" s="13"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
+      <c r="A44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="15"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="3"/>
-      <c r="K44" s="14"/>
+      <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
@@ -2020,512 +2018,512 @@
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="20" t="s">
+      <c r="H46" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <v>1</v>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="11" t="b">
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <v>4</v>
       </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="11">
         <v>8</v>
       </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <v>12</v>
       </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="11">
         <v>1</v>
       </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="11">
         <v>8</v>
       </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="12" t="s">
+      <c r="A54" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="11">
         <v>12</v>
       </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="12" t="s">
+      <c r="A55" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <v>3</v>
       </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="11">
         <v>3</v>
       </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <v>11</v>
       </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <v>5</v>
       </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <v>3</v>
       </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="11">
         <v>1</v>
       </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="12" t="s">
+      <c r="A61" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="11">
         <v>1</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="11">
         <v>1</v>
       </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
+      <c r="A63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="15"/>
+      <c r="F63" s="14"/>
       <c r="G63" s="3"/>
-      <c r="K63" s="14"/>
+      <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="14"/>
+      <c r="A64" s="13"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="K64" s="14"/>
+      <c r="K64" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
